--- a/16S/WinterContentABX_TaxTable.xlsx
+++ b/16S/WinterContentABX_TaxTable.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/16S/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DCA8CB60-4495-43E8-A54B-859796425F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:40009_{DCA8CB60-4495-43E8-A54B-859796425F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D40955F1-5F2E-4A2F-B2EB-3BB8CE5C170A}"/>
   <bookViews>
-    <workbookView xWindow="10932" yWindow="48" windowWidth="11988" windowHeight="12288"/>
+    <workbookView xWindow="-28500" yWindow="3600" windowWidth="21600" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WinterContentABX_TaxTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="124">
   <si>
     <t>OTU</t>
   </si>
@@ -362,12 +362,42 @@
   </si>
   <si>
     <t>Otu0970</t>
+  </si>
+  <si>
+    <t>Morganella morganii</t>
+  </si>
+  <si>
+    <t>Max Score</t>
+  </si>
+  <si>
+    <t>E-value</t>
+  </si>
+  <si>
+    <t>Query Cover (%)</t>
+  </si>
+  <si>
+    <t>% Identity</t>
+  </si>
+  <si>
+    <t>Uncultured bacterium</t>
+  </si>
+  <si>
+    <t>Latilactobacillus sakei / curvatus</t>
+  </si>
+  <si>
+    <t>Alistipes shahii</t>
+  </si>
+  <si>
+    <t>Uncultured Bacilli / Clostridium / bacterium</t>
+  </si>
+  <si>
+    <t>BLAST Match</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -851,10 +881,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1209,19 +1240,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,8 +1273,23 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1254,8 +1305,23 @@
       <c r="E2" s="2">
         <v>28.446083018547199</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="2">
+        <v>568</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2.0000000000000001E-127</v>
+      </c>
+      <c r="J2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1271,8 +1337,23 @@
       <c r="E3" s="2">
         <v>21.736275838698699</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="2">
+        <v>446</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="3">
+        <v>7.9999999999999998E-121</v>
+      </c>
+      <c r="J3" s="2">
+        <v>98.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>86</v>
       </c>
@@ -1288,8 +1369,23 @@
       <c r="E4" s="2">
         <v>9.6146788473591691</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="2">
+        <v>468</v>
+      </c>
+      <c r="H4" s="2">
+        <v>100</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2.0000000000000001E-127</v>
+      </c>
+      <c r="J4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1305,8 +1401,23 @@
       <c r="E5" s="2">
         <v>2.8846153846153801</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="2">
+        <v>418</v>
+      </c>
+      <c r="H5" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.9999999999999999E-112</v>
+      </c>
+      <c r="J5" s="2">
+        <v>96.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1322,8 +1433,23 @@
       <c r="E6" s="2">
         <v>1.66468993561505</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="2">
+        <v>405</v>
+      </c>
+      <c r="H6" s="2">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1E-108</v>
+      </c>
+      <c r="J6" s="2">
+        <v>95.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>71</v>
       </c>
@@ -1339,8 +1465,23 @@
       <c r="E7" s="2">
         <v>0.92198654232538202</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="2">
+        <v>416</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6.0000000000000002E-112</v>
+      </c>
+      <c r="J7" s="2">
+        <v>96.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1357,7 +1498,7 @@
         <v>0.95945020293279804</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1374,7 +1515,7 @@
         <v>0.96013765260629802</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1391,7 +1532,7 @@
         <v>0.960834561033164</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1549,7 @@
         <v>0.960834561033164</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1425,7 +1566,7 @@
         <v>0.96153846153846201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1442,7 +1583,7 @@
         <v>0.96153846153846201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1459,7 +1600,7 @@
         <v>0.96153846153846201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1476,7 +1617,7 @@
         <v>0.96153846153846201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1493,7 +1634,7 @@
         <v>0.96153846153846201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1510,7 +1651,7 @@
         <v>0.96153846153846201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1527,7 +1668,7 @@
         <v>0.96153846153846201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -1544,7 +1685,7 @@
         <v>0.96153846153846201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1561,7 +1702,7 @@
         <v>0.89164689935615005</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1578,7 +1719,7 @@
         <v>0.613252332353453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -1595,7 +1736,7 @@
         <v>0.41723144696712999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -1612,7 +1753,7 @@
         <v>2.9650965774313798E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1629,7 +1770,7 @@
         <v>1.48203968564573E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1646,7 +1787,7 @@
         <v>2.29971567151698E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -1663,7 +1804,7 @@
         <v>1.0589630633683501E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1680,7 +1821,7 @@
         <v>1.04532530523499E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1697,7 +1838,7 @@
         <v>5.9905046592653097E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1714,7 +1855,7 @@
         <v>8.3626024418799096E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1731,7 +1872,7 @@
         <v>6.3537783802101004E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -1748,7 +1889,7 @@
         <v>6.3537783802101004E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -1765,7 +1906,7 @@
         <v>6.3537783802101004E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -1782,7 +1923,7 @@
         <v>6.3537783802101004E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -1799,7 +1940,7 @@
         <v>6.3537783802101004E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -1816,7 +1957,7 @@
         <v>4.2358522534734003E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -1833,7 +1974,7 @@
         <v>4.2358522534734003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1850,7 +1991,7 @@
         <v>2.42992496869982E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1867,7 +2008,7 @@
         <v>2.40935905873611E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1884,7 +2025,7 @@
         <v>4.1649312786339E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1901,7 +2042,7 @@
         <v>4.1649312786339E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1918,7 +2059,7 @@
         <v>4.1649312786339E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1935,7 +2076,7 @@
         <v>2.1179261267367001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -1952,7 +2093,7 @@
         <v>2.1179261267367001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1969,7 +2110,7 @@
         <v>2.1179261267367001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -1986,7 +2127,7 @@
         <v>2.1179261267367001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -2003,7 +2144,7 @@
         <v>2.1179261267367001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -2020,7 +2161,7 @@
         <v>2.1179261267367001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2037,7 +2178,7 @@
         <v>2.1179261267367001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -2054,7 +2195,7 @@
         <v>2.1179261267367001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -2071,7 +2212,7 @@
         <v>2.1179261267367001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -2088,7 +2229,7 @@
         <v>2.1179261267367001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -2105,7 +2246,7 @@
         <v>2.1179261267367001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -2122,7 +2263,7 @@
         <v>2.1179261267367001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -2139,7 +2280,7 @@
         <v>2.1179261267367001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -2156,7 +2297,7 @@
         <v>2.09065061046998E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -2173,7 +2314,7 @@
         <v>2.09065061046998E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -2190,7 +2331,7 @@
         <v>2.09065061046998E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -2207,7 +2348,7 @@
         <v>2.09065061046998E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -2224,7 +2365,7 @@
         <v>2.09065061046998E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -2241,7 +2382,7 @@
         <v>2.09065061046998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>99</v>
       </c>
@@ -2258,7 +2399,7 @@
         <v>2.09065061046998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2275,7 +2416,7 @@
         <v>2.08246563931695E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -2292,7 +2433,7 @@
         <v>2.08246563931695E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -2309,7 +2450,7 @@
         <v>2.08246563931695E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -2326,7 +2467,7 @@
         <v>2.08246563931695E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -2343,7 +2484,7 @@
         <v>2.08246563931695E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -2360,7 +2501,7 @@
         <v>2.08246563931695E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -2377,7 +2518,7 @@
         <v>2.08246563931695E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -2394,7 +2535,7 @@
         <v>2.08246563931695E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -2411,7 +2552,7 @@
         <v>2.08246563931695E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>103</v>
       </c>

--- a/16S/WinterContentABX_TaxTable.xlsx
+++ b/16S/WinterContentABX_TaxTable.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/16S/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:40009_{DCA8CB60-4495-43E8-A54B-859796425F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D40955F1-5F2E-4A2F-B2EB-3BB8CE5C170A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF3CFA4-531D-484F-B320-0659AB556E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28500" yWindow="3600" windowWidth="21600" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="WinterContentABX_TaxTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="154">
   <si>
     <t>OTU</t>
   </si>
@@ -55,6 +55,12 @@
     <t>Bacteroides</t>
   </si>
   <si>
+    <t>Otu0004</t>
+  </si>
+  <si>
+    <t>Pasteurellaceae_unclassified</t>
+  </si>
+  <si>
     <t>Otu0005</t>
   </si>
   <si>
@@ -220,6 +226,12 @@
     <t>Erysipelotrichaceae_UCG-004</t>
   </si>
   <si>
+    <t>Otu0151</t>
+  </si>
+  <si>
+    <t>Terrisporobacter</t>
+  </si>
+  <si>
     <t>Otu0153</t>
   </si>
   <si>
@@ -280,6 +292,12 @@
     <t>Ruminococcaceae_UCG-013</t>
   </si>
   <si>
+    <t>Otu0288</t>
+  </si>
+  <si>
+    <t>Veillonella</t>
+  </si>
+  <si>
     <t>Otu0297</t>
   </si>
   <si>
@@ -325,6 +343,18 @@
     <t>Lachnoclostridium</t>
   </si>
   <si>
+    <t>Otu0473</t>
+  </si>
+  <si>
+    <t>Acinetobacter</t>
+  </si>
+  <si>
+    <t>Otu0517</t>
+  </si>
+  <si>
+    <t>Erysipelotrichaceae_ge</t>
+  </si>
+  <si>
     <t>Otu0537</t>
   </si>
   <si>
@@ -349,6 +379,18 @@
     <t>Burkholderia-Caballeronia-Paraburkholderia</t>
   </si>
   <si>
+    <t>Otu0707</t>
+  </si>
+  <si>
+    <t>Ruminococcus_1</t>
+  </si>
+  <si>
+    <t>Otu0732</t>
+  </si>
+  <si>
+    <t>Blautia</t>
+  </si>
+  <si>
     <t>Otu0772</t>
   </si>
   <si>
@@ -361,43 +403,91 @@
     <t>Corynebacteriaceae_unclassified</t>
   </si>
   <si>
+    <t>Otu0873</t>
+  </si>
+  <si>
     <t>Otu0970</t>
   </si>
   <si>
-    <t>Morganella morganii</t>
-  </si>
-  <si>
-    <t>Max Score</t>
-  </si>
-  <si>
-    <t>E-value</t>
-  </si>
-  <si>
-    <t>Query Cover (%)</t>
-  </si>
-  <si>
-    <t>% Identity</t>
-  </si>
-  <si>
-    <t>Uncultured bacterium</t>
-  </si>
-  <si>
-    <t>Latilactobacillus sakei / curvatus</t>
-  </si>
-  <si>
-    <t>Alistipes shahii</t>
-  </si>
-  <si>
-    <t>Uncultured Bacilli / Clostridium / bacterium</t>
-  </si>
-  <si>
-    <t>BLAST Match</t>
+    <t>Otu1108</t>
+  </si>
+  <si>
+    <t>Sanguibacteroides</t>
+  </si>
+  <si>
+    <t>Otu1202</t>
+  </si>
+  <si>
+    <t>Actinomyces</t>
+  </si>
+  <si>
+    <t>Otu1248</t>
+  </si>
+  <si>
+    <t>Otu1434</t>
+  </si>
+  <si>
+    <t>Otu1489</t>
+  </si>
+  <si>
+    <t>Otu1496</t>
+  </si>
+  <si>
+    <t>Otu1599</t>
+  </si>
+  <si>
+    <t>Mycoplasma</t>
+  </si>
+  <si>
+    <t>Otu1607</t>
+  </si>
+  <si>
+    <t>Alloscardovia</t>
+  </si>
+  <si>
+    <t>Otu1641</t>
+  </si>
+  <si>
+    <t>Otu1653</t>
+  </si>
+  <si>
+    <t>Bacteria_unclassified</t>
+  </si>
+  <si>
+    <t>Otu1752</t>
+  </si>
+  <si>
+    <t>Otu1824</t>
+  </si>
+  <si>
+    <t>Veillonellaceae_unclassified</t>
+  </si>
+  <si>
+    <t>Otu2048</t>
+  </si>
+  <si>
+    <t>Cuneatibacter</t>
+  </si>
+  <si>
+    <t>Otu2108</t>
+  </si>
+  <si>
+    <t>Acetitomaculum</t>
+  </si>
+  <si>
+    <t>Otu2232</t>
+  </si>
+  <si>
+    <t>Erysipelothrix</t>
+  </si>
+  <si>
+    <t>Otu3023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -534,7 +624,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,12 +802,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -881,11 +965,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1240,282 +1321,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
-        <v>49.262229513696397</v>
-      </c>
-      <c r="D2" s="2">
-        <v>56.892166037094498</v>
-      </c>
-      <c r="E2" s="2">
-        <v>28.446083018547199</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="2">
-        <v>568</v>
-      </c>
-      <c r="H2" s="2">
-        <v>100</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2.0000000000000001E-127</v>
-      </c>
-      <c r="J2" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2">
+        <v>49.103644502597398</v>
+      </c>
+      <c r="D2">
+        <v>56.712108977065697</v>
+      </c>
+      <c r="E2">
+        <v>28.356054488532799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>8.4153965387979007E-3</v>
+      </c>
+      <c r="D3">
+        <v>1.19465604527756E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.9732802263878096E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1.0398469345312401E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.0796938690624701E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.0398469345312401E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>24.8380160879465</v>
+      </c>
+      <c r="D5">
+        <v>49.6427626499894</v>
+      </c>
+      <c r="E5">
+        <v>24.8213813249947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>2.0798668885191299E-3</v>
+      </c>
+      <c r="D6">
+        <v>4.1597337770382702E-3</v>
+      </c>
+      <c r="E6">
+        <v>2.0798668885191299E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2">
-        <v>21.736275838698699</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43.472551677397497</v>
-      </c>
-      <c r="E3" s="2">
-        <v>21.736275838698699</v>
-      </c>
-      <c r="F3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="2">
-        <v>446</v>
-      </c>
-      <c r="H3" s="2">
-        <v>100</v>
-      </c>
-      <c r="I3" s="3">
-        <v>7.9999999999999998E-121</v>
-      </c>
-      <c r="J3" s="2">
-        <v>98.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.6175025415113495</v>
-      </c>
-      <c r="D4" s="2">
-        <v>19.229357694718299</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9.6146788473591691</v>
-      </c>
-      <c r="F4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="2">
-        <v>468</v>
-      </c>
-      <c r="H4" s="2">
-        <v>100</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2.0000000000000001E-127</v>
-      </c>
-      <c r="J4" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.8846153846153801</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5.7692307692307701</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.8846153846153801</v>
-      </c>
-      <c r="F5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="2">
-        <v>418</v>
-      </c>
-      <c r="H5" s="2">
-        <v>100</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1.9999999999999999E-112</v>
-      </c>
-      <c r="J5" s="2">
-        <v>96.44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.66468993561505</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.3293798712300902</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.66468993561505</v>
-      </c>
-      <c r="F6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="2">
-        <v>405</v>
-      </c>
-      <c r="H6" s="2">
-        <v>100</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1E-108</v>
-      </c>
-      <c r="J6" s="2">
-        <v>95.63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.1140291426635001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.84397308465076</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.92198654232538202</v>
-      </c>
-      <c r="F7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="2">
-        <v>416</v>
-      </c>
-      <c r="H7" s="2">
-        <v>100</v>
-      </c>
-      <c r="I7" s="3">
-        <v>6.0000000000000002E-112</v>
-      </c>
-      <c r="J7" s="2">
-        <v>96.43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4.1597337770382702E-3</v>
+      </c>
+      <c r="D7">
+        <v>8.3194675540765404E-3</v>
+      </c>
+      <c r="E7">
+        <v>4.1597337770382702E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>0.96782131894383205</v>
+        <v>21.673846933603599</v>
       </c>
       <c r="D8">
-        <v>1.9189004058656001</v>
+        <v>43.347693867207298</v>
       </c>
       <c r="E8">
-        <v>0.95945020293279804</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21.673846933603599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>0.96574703827566799</v>
+        <v>2.0769294674752802E-3</v>
       </c>
       <c r="D9">
-        <v>1.9202753052126</v>
+        <v>4.1538589349505699E-3</v>
       </c>
       <c r="E9">
-        <v>0.96013765260629802</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.0769294674752802E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1523,1056 +1491,1461 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.96365638766519801</v>
+        <v>2.0769294674752802E-3</v>
       </c>
       <c r="D10">
-        <v>1.92166912206633</v>
+        <v>4.1538589349505699E-3</v>
       </c>
       <c r="E10">
-        <v>0.960834561033164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.0769294674752802E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11">
-        <v>0.96365638766519801</v>
+        <v>4.1887726842348696E-3</v>
       </c>
       <c r="D11">
-        <v>1.92166912206633</v>
+        <v>4.8371140900293598E-3</v>
       </c>
       <c r="E11">
-        <v>0.960834561033164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.4185570450146799E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>2.0796938690624701E-3</v>
+      </c>
+      <c r="D12">
+        <v>4.1593877381249497E-3</v>
+      </c>
+      <c r="E12">
+        <v>2.0796938690624701E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>8.3485064612731398E-3</v>
+      </c>
+      <c r="D13">
+        <v>6.7931388316521697E-3</v>
+      </c>
+      <c r="E13">
+        <v>3.39656941582609E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>4.1887726842348696E-3</v>
+      </c>
+      <c r="D14">
+        <v>4.8371140900293598E-3</v>
+      </c>
+      <c r="E14">
+        <v>2.4185570450146799E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>6.2684665532973501E-3</v>
+      </c>
+      <c r="D15">
+        <v>4.1794584284600396E-3</v>
+      </c>
+      <c r="E15">
+        <v>2.0897292142300198E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>2.28766325596872E-2</v>
+      </c>
+      <c r="D16">
+        <v>4.5753265119374401E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.28766325596872E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>6.2307884024258497E-3</v>
+      </c>
+      <c r="D17">
+        <v>1.2461576804851699E-2</v>
+      </c>
+      <c r="E17">
+        <v>6.2307884024258497E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>4.1597337770382702E-3</v>
+      </c>
+      <c r="D18">
+        <v>8.3194675540765404E-3</v>
+      </c>
+      <c r="E18">
+        <v>4.1597337770382702E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>2.0796938690624701E-3</v>
+      </c>
+      <c r="D19">
+        <v>4.1593877381249497E-3</v>
+      </c>
+      <c r="E19">
+        <v>2.0796938690624701E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>4.1595607575816099E-3</v>
+      </c>
+      <c r="D20">
+        <v>4.8030470545108997E-3</v>
+      </c>
+      <c r="E20">
+        <v>2.4015235272554498E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>4.1915370858220599E-3</v>
+      </c>
+      <c r="D21">
+        <v>4.8402548559535402E-3</v>
+      </c>
+      <c r="E21">
+        <v>2.4201274279767701E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>2.0796938690624701E-3</v>
+      </c>
+      <c r="D22">
+        <v>4.1593877381249497E-3</v>
+      </c>
+      <c r="E22">
+        <v>2.0796938690624701E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>2.1118432167595898E-3</v>
+      </c>
+      <c r="D23">
+        <v>4.2236864335191797E-3</v>
+      </c>
+      <c r="E23">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>2.0798668885191299E-3</v>
+      </c>
+      <c r="D24">
+        <v>4.1597337770382702E-3</v>
+      </c>
+      <c r="E24">
+        <v>2.0798668885191299E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>4.1597337770382702E-3</v>
+      </c>
+      <c r="D25">
+        <v>8.3194675540765404E-3</v>
+      </c>
+      <c r="E25">
+        <v>4.1597337770382702E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>8.3187754762498994E-3</v>
+      </c>
+      <c r="D26">
+        <v>1.6637550952499799E-2</v>
+      </c>
+      <c r="E26">
+        <v>8.3187754762498994E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>2.0769294674752802E-3</v>
+      </c>
+      <c r="D27">
+        <v>4.1538589349505699E-3</v>
+      </c>
+      <c r="E27">
+        <v>2.0769294674752802E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>0.96153846153846201</v>
-      </c>
-      <c r="D12">
-        <v>1.92307692307692</v>
-      </c>
-      <c r="E12">
-        <v>0.96153846153846201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>0.96153846153846201</v>
-      </c>
-      <c r="D13">
-        <v>1.92307692307692</v>
-      </c>
-      <c r="E13">
-        <v>0.96153846153846201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>0.96153846153846201</v>
-      </c>
-      <c r="D14">
-        <v>1.92307692307692</v>
-      </c>
-      <c r="E14">
-        <v>0.96153846153846201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>0.96153846153846201</v>
-      </c>
-      <c r="D15">
-        <v>1.92307692307692</v>
-      </c>
-      <c r="E15">
-        <v>0.96153846153846201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C28">
+        <v>0.615653683937887</v>
+      </c>
+      <c r="D28">
+        <v>1.22007019850216</v>
+      </c>
+      <c r="E28">
+        <v>0.61003509925108002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>2.0796938690624701E-3</v>
+      </c>
+      <c r="D29">
+        <v>4.1593877381249497E-3</v>
+      </c>
+      <c r="E29">
+        <v>2.0796938690624701E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>2.0769294674752802E-3</v>
+      </c>
+      <c r="D30">
+        <v>4.1538589349505699E-3</v>
+      </c>
+      <c r="E30">
+        <v>2.0769294674752802E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31">
+        <v>2.50541586274943E-2</v>
+      </c>
+      <c r="D31">
+        <v>2.9609953996496501E-2</v>
+      </c>
+      <c r="E31">
+        <v>1.48049769982482E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="C16">
-        <v>0.96153846153846201</v>
-      </c>
-      <c r="D16">
-        <v>1.92307692307692</v>
-      </c>
-      <c r="E16">
-        <v>0.96153846153846201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C32">
+        <v>2.0796938690624701E-3</v>
+      </c>
+      <c r="D32">
+        <v>4.1593877381249497E-3</v>
+      </c>
+      <c r="E32">
+        <v>2.0796938690624701E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>2.0769294674752802E-3</v>
+      </c>
+      <c r="D33">
+        <v>4.1538589349505699E-3</v>
+      </c>
+      <c r="E33">
+        <v>2.0769294674752802E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>0.96153846153846201</v>
-      </c>
-      <c r="D17">
-        <v>1.92307692307692</v>
-      </c>
-      <c r="E17">
-        <v>0.96153846153846201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18">
-        <v>0.96153846153846201</v>
-      </c>
-      <c r="D18">
-        <v>1.92307692307692</v>
-      </c>
-      <c r="E18">
-        <v>0.96153846153846201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19">
-        <v>0.96153846153846201</v>
-      </c>
-      <c r="D19">
-        <v>1.92307692307692</v>
-      </c>
-      <c r="E19">
-        <v>0.96153846153846201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <v>0.89164689935615005</v>
-      </c>
-      <c r="D20">
-        <v>1.7832937987123001</v>
-      </c>
-      <c r="E20">
-        <v>0.89164689935615005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>0.618887131731647</v>
-      </c>
-      <c r="D21">
-        <v>1.22650466470691</v>
-      </c>
-      <c r="E21">
-        <v>0.613252332353453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22">
-        <v>0.41723144696712999</v>
-      </c>
-      <c r="D22">
-        <v>0.83446289393425999</v>
-      </c>
-      <c r="E22">
-        <v>0.41723144696712999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23">
-        <v>2.9650965774313798E-2</v>
-      </c>
-      <c r="D23">
-        <v>5.9301931548627597E-2</v>
-      </c>
-      <c r="E23">
-        <v>2.9650965774313798E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24">
-        <v>2.5104154105215701E-2</v>
-      </c>
-      <c r="D24">
-        <v>2.9640793712914702E-2</v>
-      </c>
-      <c r="E24">
-        <v>1.48203968564573E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>2.29971567151698E-2</v>
-      </c>
-      <c r="D25">
-        <v>4.5994313430339502E-2</v>
-      </c>
-      <c r="E25">
-        <v>2.29971567151698E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>1.0589630633683501E-2</v>
-      </c>
-      <c r="D26">
-        <v>2.1179261267367001E-2</v>
-      </c>
-      <c r="E26">
-        <v>1.0589630633683501E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>1.04532530523499E-2</v>
-      </c>
-      <c r="D27">
-        <v>2.0906506104699799E-2</v>
-      </c>
-      <c r="E27">
-        <v>1.04532530523499E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>8.4362440195270508E-3</v>
-      </c>
-      <c r="D28">
-        <v>1.19810093185306E-2</v>
-      </c>
-      <c r="E28">
-        <v>5.9905046592653097E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29">
-        <v>8.3626024418799096E-3</v>
-      </c>
-      <c r="D29">
-        <v>1.6725204883759798E-2</v>
-      </c>
-      <c r="E29">
-        <v>8.3626024418799096E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30">
-        <v>6.3537783802101004E-3</v>
-      </c>
-      <c r="D30">
-        <v>1.2707556760420201E-2</v>
-      </c>
-      <c r="E30">
-        <v>6.3537783802101004E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>6.3537783802101004E-3</v>
-      </c>
-      <c r="D31">
-        <v>1.2707556760420201E-2</v>
-      </c>
-      <c r="E31">
-        <v>6.3537783802101004E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32">
-        <v>6.3537783802101004E-3</v>
-      </c>
-      <c r="D32">
-        <v>1.2707556760420201E-2</v>
-      </c>
-      <c r="E32">
-        <v>6.3537783802101004E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33">
-        <v>6.3537783802101004E-3</v>
-      </c>
-      <c r="D33">
-        <v>1.2707556760420201E-2</v>
-      </c>
-      <c r="E33">
-        <v>6.3537783802101004E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>93</v>
-      </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C34">
-        <v>6.3537783802101004E-3</v>
+        <v>2.0798668885191299E-3</v>
       </c>
       <c r="D34">
-        <v>1.2707556760420201E-2</v>
+        <v>4.1597337770382702E-3</v>
       </c>
       <c r="E34">
-        <v>6.3537783802101004E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.0798668885191299E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>4.2358522534734003E-3</v>
+        <v>4.2236864335191797E-3</v>
       </c>
       <c r="D35">
-        <v>8.4717045069468006E-3</v>
+        <v>8.4473728670383507E-3</v>
       </c>
       <c r="E35">
-        <v>4.2358522534734003E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.2236864335191797E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="C36">
-        <v>4.2358522534734003E-3</v>
+        <v>2.0769294674752802E-3</v>
       </c>
       <c r="D36">
-        <v>8.4717045069468006E-3</v>
+        <v>4.1538589349505699E-3</v>
       </c>
       <c r="E36">
-        <v>4.2358522534734003E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.0769294674752802E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C37">
-        <v>4.2085767372066797E-3</v>
+        <v>2.1118432167595898E-3</v>
       </c>
       <c r="D37">
-        <v>4.85984993739964E-3</v>
+        <v>4.2236864335191797E-3</v>
       </c>
       <c r="E37">
-        <v>2.42992496869982E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C38">
-        <v>4.17311624978693E-3</v>
+        <v>2.0798668885191299E-3</v>
       </c>
       <c r="D38">
-        <v>4.8187181174722199E-3</v>
+        <v>4.1597337770382702E-3</v>
       </c>
       <c r="E38">
-        <v>2.40935905873611E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.0798668885191299E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C39">
-        <v>4.1649312786339E-3</v>
+        <v>1.65990876837304</v>
       </c>
       <c r="D39">
-        <v>8.3298625572678104E-3</v>
+        <v>3.3198175367460698</v>
       </c>
       <c r="E39">
-        <v>4.1649312786339E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.65990876837304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C40">
-        <v>4.1649312786339E-3</v>
+        <v>4.1597337770382702E-3</v>
       </c>
       <c r="D40">
-        <v>8.3298625572678104E-3</v>
+        <v>8.3194675540765404E-3</v>
       </c>
       <c r="E40">
-        <v>4.1649312786339E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.1597337770382702E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>4.1649312786339E-3</v>
+        <v>2.1118432167595898E-3</v>
       </c>
       <c r="D41">
-        <v>8.3298625572678104E-3</v>
+        <v>4.2236864335191797E-3</v>
       </c>
       <c r="E41">
-        <v>4.1649312786339E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C42">
-        <v>2.1179261267367001E-3</v>
+        <v>0.88908599425578605</v>
       </c>
       <c r="D42">
-        <v>4.2358522534734003E-3</v>
+        <v>1.7781719885115701</v>
       </c>
       <c r="E42">
-        <v>2.1179261267367001E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.88908599425578605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C43">
-        <v>2.1179261267367001E-3</v>
+        <v>6.33552965027876E-3</v>
       </c>
       <c r="D43">
-        <v>4.2358522534734003E-3</v>
+        <v>1.2671059300557499E-2</v>
       </c>
       <c r="E43">
-        <v>2.1179261267367001E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.33552965027876E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C44">
-        <v>2.1179261267367001E-3</v>
+        <v>2.0769294674752802E-3</v>
       </c>
       <c r="D44">
-        <v>4.2358522534734003E-3</v>
+        <v>4.1538589349505699E-3</v>
       </c>
       <c r="E44">
-        <v>2.1179261267367001E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.0769294674752802E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45">
+        <v>0.15412964107416599</v>
+      </c>
+      <c r="D45">
+        <v>0.30274613504648801</v>
+      </c>
+      <c r="E45">
+        <v>0.151373067523244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>1.0559216083797901E-2</v>
+      </c>
+      <c r="D46">
+        <v>2.1118432167595898E-2</v>
+      </c>
+      <c r="E46">
+        <v>1.0559216083797901E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>78</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47">
+        <v>2.0798668885191299E-3</v>
+      </c>
+      <c r="D47">
+        <v>4.1597337770382702E-3</v>
+      </c>
+      <c r="E47">
+        <v>2.0798668885191299E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>6.33552965027876E-3</v>
+      </c>
+      <c r="D48">
+        <v>1.2671059300557499E-2</v>
+      </c>
+      <c r="E48">
+        <v>6.33552965027876E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49">
+        <v>2.0798668885191299E-3</v>
+      </c>
+      <c r="D49">
+        <v>4.1597337770382702E-3</v>
+      </c>
+      <c r="E49">
+        <v>2.0798668885191299E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>2.1118432167595898E-3</v>
+      </c>
+      <c r="D50">
+        <v>4.2236864335191797E-3</v>
+      </c>
+      <c r="E50">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51">
+        <v>2.0798668885191299E-3</v>
+      </c>
+      <c r="D51">
+        <v>4.1597337770382702E-3</v>
+      </c>
+      <c r="E51">
+        <v>2.0798668885191299E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52">
+        <v>6.33552965027876E-3</v>
+      </c>
+      <c r="D52">
+        <v>1.2671059300557499E-2</v>
+      </c>
+      <c r="E52">
+        <v>6.33552965027876E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53">
+        <v>6.33552965027876E-3</v>
+      </c>
+      <c r="D53">
+        <v>1.2671059300557499E-2</v>
+      </c>
+      <c r="E53">
+        <v>6.33552965027876E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54">
+        <v>2.1118432167595898E-3</v>
+      </c>
+      <c r="D54">
+        <v>4.2236864335191797E-3</v>
+      </c>
+      <c r="E54">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55">
+        <v>2.0796938690624701E-3</v>
+      </c>
+      <c r="D55">
+        <v>4.1593877381249497E-3</v>
+      </c>
+      <c r="E55">
+        <v>2.0796938690624701E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" t="s">
         <v>16</v>
       </c>
-      <c r="C45">
-        <v>2.1179261267367001E-3</v>
-      </c>
-      <c r="D45">
-        <v>4.2358522534734003E-3</v>
-      </c>
-      <c r="E45">
-        <v>2.1179261267367001E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46">
-        <v>2.1179261267367001E-3</v>
-      </c>
-      <c r="D46">
-        <v>4.2358522534734003E-3</v>
-      </c>
-      <c r="E46">
-        <v>2.1179261267367001E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47">
-        <v>2.1179261267367001E-3</v>
-      </c>
-      <c r="D47">
-        <v>4.2358522534734003E-3</v>
-      </c>
-      <c r="E47">
-        <v>2.1179261267367001E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48">
-        <v>2.1179261267367001E-3</v>
-      </c>
-      <c r="D48">
-        <v>4.2358522534734003E-3</v>
-      </c>
-      <c r="E48">
-        <v>2.1179261267367001E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C56">
+        <v>2.2881137891512401E-2</v>
+      </c>
+      <c r="D56">
+        <v>4.0327781342810599E-2</v>
+      </c>
+      <c r="E56">
+        <v>2.01638906714053E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57">
+        <v>2.0798668885191299E-3</v>
+      </c>
+      <c r="D57">
+        <v>4.1597337770382702E-3</v>
+      </c>
+      <c r="E57">
+        <v>2.0798668885191299E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>94</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B58" t="s">
         <v>95</v>
       </c>
-      <c r="C49">
-        <v>2.1179261267367001E-3</v>
-      </c>
-      <c r="D49">
-        <v>4.2358522534734003E-3</v>
-      </c>
-      <c r="E49">
-        <v>2.1179261267367001E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C58">
+        <v>0.41603311370163898</v>
+      </c>
+      <c r="D58">
+        <v>0.83206622740327796</v>
+      </c>
+      <c r="E58">
+        <v>0.41603311370163898</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>2.1118432167595898E-3</v>
+      </c>
+      <c r="D59">
+        <v>4.2236864335191797E-3</v>
+      </c>
+      <c r="E59">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50">
-        <v>2.1179261267367001E-3</v>
-      </c>
-      <c r="D50">
-        <v>4.2358522534734003E-3</v>
-      </c>
-      <c r="E50">
-        <v>2.1179261267367001E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51">
-        <v>2.1179261267367001E-3</v>
-      </c>
-      <c r="D51">
-        <v>4.2358522534734003E-3</v>
-      </c>
-      <c r="E51">
-        <v>2.1179261267367001E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52">
-        <v>2.1179261267367001E-3</v>
-      </c>
-      <c r="D52">
-        <v>4.2358522534734003E-3</v>
-      </c>
-      <c r="E52">
-        <v>2.1179261267367001E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53">
-        <v>2.1179261267367001E-3</v>
-      </c>
-      <c r="D53">
-        <v>4.2358522534734003E-3</v>
-      </c>
-      <c r="E53">
-        <v>2.1179261267367001E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54">
-        <v>2.1179261267367001E-3</v>
-      </c>
-      <c r="D54">
-        <v>4.2358522534734003E-3</v>
-      </c>
-      <c r="E54">
-        <v>2.1179261267367001E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55">
-        <v>2.09065061046998E-3</v>
-      </c>
-      <c r="D55">
-        <v>4.18130122093996E-3</v>
-      </c>
-      <c r="E55">
-        <v>2.09065061046998E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56">
-        <v>2.09065061046998E-3</v>
-      </c>
-      <c r="D56">
-        <v>4.18130122093996E-3</v>
-      </c>
-      <c r="E56">
-        <v>2.09065061046998E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57">
-        <v>2.09065061046998E-3</v>
-      </c>
-      <c r="D57">
-        <v>4.18130122093996E-3</v>
-      </c>
-      <c r="E57">
-        <v>2.09065061046998E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58">
-        <v>2.09065061046998E-3</v>
-      </c>
-      <c r="D58">
-        <v>4.18130122093996E-3</v>
-      </c>
-      <c r="E58">
-        <v>2.09065061046998E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59">
-        <v>2.09065061046998E-3</v>
-      </c>
-      <c r="D59">
-        <v>4.18130122093996E-3</v>
-      </c>
-      <c r="E59">
-        <v>2.09065061046998E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>96</v>
-      </c>
-      <c r="B60" t="s">
-        <v>97</v>
-      </c>
       <c r="C60">
-        <v>2.09065061046998E-3</v>
+        <v>2.1118432167595898E-3</v>
       </c>
       <c r="D60">
-        <v>4.18130122093996E-3</v>
+        <v>4.2236864335191797E-3</v>
       </c>
       <c r="E60">
-        <v>2.09065061046998E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>99</v>
       </c>
       <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61">
+        <v>6.33552965027876E-3</v>
+      </c>
+      <c r="D61">
+        <v>1.2671059300557499E-2</v>
+      </c>
+      <c r="E61">
+        <v>6.33552965027876E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>100</v>
       </c>
-      <c r="C61">
-        <v>2.09065061046998E-3</v>
-      </c>
-      <c r="D61">
-        <v>4.18130122093996E-3</v>
-      </c>
-      <c r="E61">
-        <v>2.09065061046998E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>11</v>
-      </c>
       <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62">
+        <v>2.1118432167595898E-3</v>
+      </c>
+      <c r="D62">
+        <v>4.2236864335191797E-3</v>
+      </c>
+      <c r="E62">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63">
+        <v>2.0796938690624701E-3</v>
+      </c>
+      <c r="D63">
+        <v>4.1593877381249497E-3</v>
+      </c>
+      <c r="E63">
+        <v>2.0796938690624701E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>2.1118432167595898E-3</v>
+      </c>
+      <c r="D64">
+        <v>4.2236864335191797E-3</v>
+      </c>
+      <c r="E64">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65">
+        <v>2.0796938690624701E-3</v>
+      </c>
+      <c r="D65">
+        <v>4.1593877381249497E-3</v>
+      </c>
+      <c r="E65">
+        <v>2.0796938690624701E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66">
+        <v>2.0769294674752802E-3</v>
+      </c>
+      <c r="D66">
+        <v>4.1538589349505699E-3</v>
+      </c>
+      <c r="E66">
+        <v>2.0769294674752802E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67">
+        <v>1.24781632143748E-2</v>
+      </c>
+      <c r="D67">
+        <v>2.49563264287497E-2</v>
+      </c>
+      <c r="E67">
+        <v>1.24781632143748E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>2.9565805034634199E-2</v>
+      </c>
+      <c r="D68">
+        <v>5.9131610069268502E-2</v>
+      </c>
+      <c r="E68">
+        <v>2.9565805034634199E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69">
+        <v>2.0798668885191299E-3</v>
+      </c>
+      <c r="D69">
+        <v>4.1597337770382702E-3</v>
+      </c>
+      <c r="E69">
+        <v>2.0798668885191299E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70">
+        <v>2.0798668885191299E-3</v>
+      </c>
+      <c r="D70">
+        <v>4.1597337770382702E-3</v>
+      </c>
+      <c r="E70">
+        <v>2.0798668885191299E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71">
+        <v>2.1118432167595898E-3</v>
+      </c>
+      <c r="D71">
+        <v>4.2236864335191797E-3</v>
+      </c>
+      <c r="E71">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72">
+        <v>4.2236864335191797E-3</v>
+      </c>
+      <c r="D72">
+        <v>8.4473728670383507E-3</v>
+      </c>
+      <c r="E72">
+        <v>4.2236864335191797E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73">
+        <v>2.0769294674752802E-3</v>
+      </c>
+      <c r="D73">
+        <v>4.1538589349505699E-3</v>
+      </c>
+      <c r="E73">
+        <v>2.0769294674752802E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74">
+        <v>2.1118432167595898E-3</v>
+      </c>
+      <c r="D74">
+        <v>4.2236864335191797E-3</v>
+      </c>
+      <c r="E74">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75">
+        <v>4.5753265119374401E-2</v>
+      </c>
+      <c r="D75">
+        <v>9.1506530238748898E-2</v>
+      </c>
+      <c r="E75">
+        <v>4.5753265119374401E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76">
+        <v>2.1118432167595898E-3</v>
+      </c>
+      <c r="D76">
+        <v>4.2236864335191797E-3</v>
+      </c>
+      <c r="E76">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77">
+        <v>2.1118432167595898E-3</v>
+      </c>
+      <c r="D77">
+        <v>4.2236864335191797E-3</v>
+      </c>
+      <c r="E77">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" t="s">
         <v>12</v>
       </c>
-      <c r="C62">
-        <v>2.08246563931695E-3</v>
-      </c>
-      <c r="D62">
-        <v>4.1649312786339E-3</v>
-      </c>
-      <c r="E62">
-        <v>2.08246563931695E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63">
-        <v>2.08246563931695E-3</v>
-      </c>
-      <c r="D63">
-        <v>4.1649312786339E-3</v>
-      </c>
-      <c r="E63">
-        <v>2.08246563931695E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64">
-        <v>2.08246563931695E-3</v>
-      </c>
-      <c r="D64">
-        <v>4.1649312786339E-3</v>
-      </c>
-      <c r="E64">
-        <v>2.08246563931695E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65">
-        <v>2.08246563931695E-3</v>
-      </c>
-      <c r="D65">
-        <v>4.1649312786339E-3</v>
-      </c>
-      <c r="E65">
-        <v>2.08246563931695E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66">
-        <v>2.08246563931695E-3</v>
-      </c>
-      <c r="D66">
-        <v>4.1649312786339E-3</v>
-      </c>
-      <c r="E66">
-        <v>2.08246563931695E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C78">
+        <v>9.34673548395622E-2</v>
+      </c>
+      <c r="D78">
+        <v>0.17601783074785399</v>
+      </c>
+      <c r="E78">
+        <v>8.8008915373927105E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>2.1118432167595898E-3</v>
+      </c>
+      <c r="D79">
+        <v>4.2236864335191797E-3</v>
+      </c>
+      <c r="E79">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80">
+        <v>2.28766325596872E-2</v>
+      </c>
+      <c r="D80">
+        <v>4.5753265119374401E-2</v>
+      </c>
+      <c r="E80">
+        <v>2.28766325596872E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81">
+        <v>5.4907923635749298E-2</v>
+      </c>
+      <c r="D81">
+        <v>0.109815847271499</v>
+      </c>
+      <c r="E81">
+        <v>5.4907923635749298E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>2.0798668885191299E-3</v>
+      </c>
+      <c r="D82">
+        <v>4.1597337770382702E-3</v>
+      </c>
+      <c r="E82">
+        <v>2.0798668885191299E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83">
+        <v>1.03846473373764E-2</v>
+      </c>
+      <c r="D83">
+        <v>2.0769294674752799E-2</v>
+      </c>
+      <c r="E83">
+        <v>1.03846473373764E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>2.0797976807364699E-2</v>
+      </c>
+      <c r="D84">
+        <v>2.4957941311129501E-2</v>
+      </c>
+      <c r="E84">
+        <v>1.24789706555647E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" t="s">
         <v>26</v>
       </c>
-      <c r="C67">
-        <v>2.08246563931695E-3</v>
-      </c>
-      <c r="D67">
-        <v>4.1649312786339E-3</v>
-      </c>
-      <c r="E67">
-        <v>2.08246563931695E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68">
-        <v>2.08246563931695E-3</v>
-      </c>
-      <c r="D68">
-        <v>4.1649312786339E-3</v>
-      </c>
-      <c r="E68">
-        <v>2.08246563931695E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C85">
+        <v>1.0398469345312401E-2</v>
+      </c>
+      <c r="D85">
+        <v>2.0796938690624701E-2</v>
+      </c>
+      <c r="E85">
+        <v>1.0398469345312401E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86">
+        <v>6.23666324451355E-3</v>
+      </c>
+      <c r="D86">
+        <v>7.9642631807623106E-3</v>
+      </c>
+      <c r="E86">
+        <v>3.9821315903811501E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87">
+        <v>1.25396975081819E-2</v>
+      </c>
+      <c r="D87">
+        <v>1.07748593812398E-2</v>
+      </c>
+      <c r="E87">
+        <v>5.3874296906199198E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>141</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>1.4541270673914201E-2</v>
+      </c>
+      <c r="D88">
+        <v>2.3861141056730699E-2</v>
+      </c>
+      <c r="E88">
+        <v>1.19305705283654E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89">
+        <v>2.1118432167595898E-3</v>
+      </c>
+      <c r="D89">
+        <v>4.2236864335191797E-3</v>
+      </c>
+      <c r="E89">
+        <v>2.1118432167595898E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90">
+        <v>8.3834202105574507E-3</v>
+      </c>
+      <c r="D90">
+        <v>9.6809031473532106E-3</v>
+      </c>
+      <c r="E90">
+        <v>4.8404515736766001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91">
+        <v>2.0798668885191299E-3</v>
+      </c>
+      <c r="D91">
+        <v>4.1597337770382702E-3</v>
+      </c>
+      <c r="E91">
+        <v>2.0798668885191299E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92">
+        <v>4.1593877381249497E-3</v>
+      </c>
+      <c r="D92">
+        <v>8.3187754762498994E-3</v>
+      </c>
+      <c r="E92">
+        <v>4.1593877381249497E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93">
+        <v>2.0798668885191299E-3</v>
+      </c>
+      <c r="D93">
+        <v>4.1597337770382702E-3</v>
+      </c>
+      <c r="E93">
+        <v>2.0798668885191299E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" t="s">
+        <v>152</v>
+      </c>
+      <c r="C94">
+        <v>2.0769294674752802E-3</v>
+      </c>
+      <c r="D94">
+        <v>4.1538589349505699E-3</v>
+      </c>
+      <c r="E94">
+        <v>2.0769294674752802E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" t="s">
         <v>87</v>
       </c>
-      <c r="B69" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69">
-        <v>2.08246563931695E-3</v>
-      </c>
-      <c r="D69">
-        <v>4.1649312786339E-3</v>
-      </c>
-      <c r="E69">
-        <v>2.08246563931695E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>102</v>
-      </c>
-      <c r="B70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70">
-        <v>2.08246563931695E-3</v>
-      </c>
-      <c r="D70">
-        <v>4.1649312786339E-3</v>
-      </c>
-      <c r="E70">
-        <v>2.08246563931695E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>103</v>
-      </c>
-      <c r="B71" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71">
-        <v>2.08246563931695E-3</v>
-      </c>
-      <c r="D71">
-        <v>4.1649312786339E-3</v>
-      </c>
-      <c r="E71">
-        <v>2.08246563931695E-3</v>
+      <c r="C95">
+        <v>4.2236864335191797E-3</v>
+      </c>
+      <c r="D95">
+        <v>8.4473728670383507E-3</v>
+      </c>
+      <c r="E95">
+        <v>4.2236864335191797E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E71">
-    <sortCondition descending="1" ref="C1:C71"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>